--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43465,6 +43465,41 @@
         <v>87700</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>88500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43500,6 +43500,41 @@
         <v>88500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>279300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43535,6 +43535,41 @@
         <v>279300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>484000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43570,6 +43570,41 @@
         <v>484000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>814000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43605,6 +43605,41 @@
         <v>814000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>457300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43640,6 +43640,41 @@
         <v>457300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>665000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43675,6 +43675,41 @@
         <v>665000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>822000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43710,6 +43710,41 @@
         <v>822000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1321900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43745,6 +43745,41 @@
         <v>1321900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>132000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43780,6 +43780,41 @@
         <v>132000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>342000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43815,6 +43815,41 @@
         <v>342000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>340000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43850,6 +43850,41 @@
         <v>340000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>124100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43885,6 +43885,76 @@
         <v>124100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>847300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43955,6 +43955,76 @@
         <v>847300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>821500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>348000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44025,6 +44025,41 @@
         <v>348000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>303100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44060,6 +44060,41 @@
         <v>303100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>460600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44095,6 +44095,41 @@
         <v>460600</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>346400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44130,6 +44130,41 @@
         <v>346400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1217400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44165,6 +44165,76 @@
         <v>1217400</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>467300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>350200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44235,6 +44235,41 @@
         <v>350200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>90000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44270,6 +44270,41 @@
         <v>90000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>280000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1956"/>
+  <dimension ref="A1:I1957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69330,6 +69330,41 @@
         <v>280000</v>
       </c>
     </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1957" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1957" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1957" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1957" t="n">
+        <v>995900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1957"/>
+  <dimension ref="A1:I1958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69365,6 +69365,41 @@
         <v>995900</v>
       </c>
     </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1958" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1958" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1958" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1958" t="n">
+        <v>864900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1958"/>
+  <dimension ref="A1:I1959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69400,6 +69400,41 @@
         <v>864900</v>
       </c>
     </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1959" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1959" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1959" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1959" t="n">
+        <v>933300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1959"/>
+  <dimension ref="A1:I1960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69435,6 +69435,41 @@
         <v>933300</v>
       </c>
     </row>
+    <row r="1960">
+      <c r="A1960" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1960" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1960" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1960" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1960" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1960" t="n">
+        <v>658500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1960"/>
+  <dimension ref="A1:I1961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69470,6 +69470,41 @@
         <v>658500</v>
       </c>
     </row>
+    <row r="1961">
+      <c r="A1961" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1961" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1961" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1961" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1961" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1961" t="n">
+        <v>687400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1961"/>
+  <dimension ref="A1:I1962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69505,6 +69505,41 @@
         <v>687400</v>
       </c>
     </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1962" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1962" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1962" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1962" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1962" t="n">
+        <v>286600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1962"/>
+  <dimension ref="A1:I1963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69540,6 +69540,41 @@
         <v>286600</v>
       </c>
     </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1963" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1963" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1963" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1963" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1963" t="n">
+        <v>346000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1963"/>
+  <dimension ref="A1:I1964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69575,6 +69575,41 @@
         <v>346000</v>
       </c>
     </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1964" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1964" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1964" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1964" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1964" t="n">
+        <v>82800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1964"/>
+  <dimension ref="A1:I1965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69610,6 +69610,41 @@
         <v>82800</v>
       </c>
     </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1965" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1965" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1965" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1965" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1965" t="n">
+        <v>379200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1965"/>
+  <dimension ref="A1:I1966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69645,6 +69645,41 @@
         <v>379200</v>
       </c>
     </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1966" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1966" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1966" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1966" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1966" t="n">
+        <v>194100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1966"/>
+  <dimension ref="A1:I1967"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69680,6 +69680,41 @@
         <v>194100</v>
       </c>
     </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1967" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1967" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1967" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1967" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1967" t="n">
+        <v>24200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1967"/>
+  <dimension ref="A1:I1968"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69715,6 +69715,41 @@
         <v>24200</v>
       </c>
     </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1968" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1968" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1968" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1968" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1968" t="n">
+        <v>474000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1968"/>
+  <dimension ref="A1:I1969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69750,6 +69750,41 @@
         <v>474000</v>
       </c>
     </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1969" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1969" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1969" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1969" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1969" t="n">
+        <v>291300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1969"/>
+  <dimension ref="A1:I1970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69785,6 +69785,41 @@
         <v>291300</v>
       </c>
     </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1970" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1970" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1970" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1970" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1970" t="n">
+        <v>246600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1970"/>
+  <dimension ref="A1:I1971"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69820,6 +69820,41 @@
         <v>246600</v>
       </c>
     </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1971" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1971" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1971" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1971" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1971" t="n">
+        <v>134800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1971"/>
+  <dimension ref="A1:I1972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69855,6 +69855,41 @@
         <v>134800</v>
       </c>
     </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1972" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1972" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1972" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1972" t="n">
+        <v>85900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1972"/>
+  <dimension ref="A1:I1973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69890,6 +69890,41 @@
         <v>85900</v>
       </c>
     </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1973" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1973" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1973" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1973" t="n">
+        <v>261800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1973"/>
+  <dimension ref="A1:I1974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69925,6 +69925,41 @@
         <v>261800</v>
       </c>
     </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1974" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1974" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1974" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1974" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1974" t="n">
+        <v>132900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1974"/>
+  <dimension ref="A1:I1975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69960,6 +69960,41 @@
         <v>132900</v>
       </c>
     </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1975" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1975" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1975" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1975" t="n">
+        <v>97700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1975"/>
+  <dimension ref="A1:I1976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69995,6 +69995,41 @@
         <v>97700</v>
       </c>
     </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1976" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1976" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1976" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1976" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1976" t="n">
+        <v>244800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1976"/>
+  <dimension ref="A1:I1977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70030,6 +70030,41 @@
         <v>244800</v>
       </c>
     </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1977" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1977" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1977" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1977" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1977"/>
+  <dimension ref="A1:I1978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70065,6 +70065,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1978">
+      <c r="A1978" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1978" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1978" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1978" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1978" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1978" t="n">
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1978"/>
+  <dimension ref="A1:I1979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70100,6 +70100,41 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="1979">
+      <c r="A1979" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1979" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1979" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1979" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1979" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1979" t="n">
+        <v>403800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1979"/>
+  <dimension ref="A1:I1980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70135,6 +70135,41 @@
         <v>403800</v>
       </c>
     </row>
+    <row r="1980">
+      <c r="A1980" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1980" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1980" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1980" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1980" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1980" t="n">
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1980"/>
+  <dimension ref="A1:I1981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70170,6 +70170,41 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="1981">
+      <c r="A1981" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1981" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1981" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1981" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1981" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1981" t="n">
+        <v>358300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1981"/>
+  <dimension ref="A1:I1983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70205,6 +70205,76 @@
         <v>358300</v>
       </c>
     </row>
+    <row r="1982">
+      <c r="A1982" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1982" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1982" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1982" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1982" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1982" t="n">
+        <v>169500</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1983" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1983" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1983" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1983" t="n">
+        <v>87000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1983"/>
+  <dimension ref="A1:I1984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70275,6 +70275,41 @@
         <v>87000</v>
       </c>
     </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1984" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1984" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1984" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1984" t="n">
+        <v>82000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1984"/>
+  <dimension ref="A1:I1987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70310,6 +70310,111 @@
         <v>82000</v>
       </c>
     </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1985" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1985" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1985" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1985" t="n">
+        <v>19340500</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1986" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1986" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1986" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1986" t="n">
+        <v>11169200</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1987" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1987" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1987" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1987" t="n">
+        <v>5551000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1987"/>
+  <dimension ref="A1:I1988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70415,6 +70415,41 @@
         <v>5551000</v>
       </c>
     </row>
+    <row r="1988">
+      <c r="A1988" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1988" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1988" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1988" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1988" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1988" t="n">
+        <v>1747800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1988"/>
+  <dimension ref="A1:I1989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70450,6 +70450,41 @@
         <v>1747800</v>
       </c>
     </row>
+    <row r="1989">
+      <c r="A1989" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1989" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1989" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1989" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1989" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1989" t="n">
+        <v>3368700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5213.xlsx
+++ b/data/5213.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1989"/>
+  <dimension ref="A1:I1992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70485,6 +70485,111 @@
         <v>3368700</v>
       </c>
     </row>
+    <row r="1990">
+      <c r="A1990" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1990" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1990" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1990" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1990" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1990" t="n">
+        <v>2599700</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1991" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1991" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1991" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1991" t="n">
+        <v>3147100</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>SNTORIA</t>
+        </is>
+      </c>
+      <c r="E1992" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1992" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1992" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1992" t="n">
+        <v>7079100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
